--- a/fastqFiles/fastq_2496.xlsx
+++ b/fastqFiles/fastq_2496.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE672413-AB23-A74D-BE05-B9D903366647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="62">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +43,6 @@
     <t>10.03.17</t>
   </si>
   <si>
-    <t>Retrofitted_2496</t>
-  </si>
-  <si>
     <t>sequence/run_2496_samples/2496_Brent_46_GTAC50_CAATATC_S48_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -197,13 +200,19 @@
   </si>
   <si>
     <t>sequence/run_2496_samples/2496_Brent_42_GTAC46_GGTGAAT_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +275,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -312,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +361,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +413,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,14 +606,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,12 +635,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -594,18 +649,18 @@
         <v>2496</v>
       </c>
       <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -614,18 +669,18 @@
         <v>2496</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -634,18 +689,18 @@
         <v>2496</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -654,18 +709,18 @@
         <v>2496</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -674,38 +729,38 @@
         <v>2496</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2496</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2496</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -714,18 +769,18 @@
         <v>2496</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -734,18 +789,18 @@
         <v>2496</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -754,18 +809,18 @@
         <v>2496</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -774,18 +829,18 @@
         <v>2496</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -794,18 +849,18 @@
         <v>2496</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -814,18 +869,18 @@
         <v>2496</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -834,18 +889,18 @@
         <v>2496</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -854,18 +909,18 @@
         <v>2496</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -874,18 +929,18 @@
         <v>2496</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -894,18 +949,18 @@
         <v>2496</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -914,18 +969,18 @@
         <v>2496</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -934,18 +989,18 @@
         <v>2496</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -954,18 +1009,18 @@
         <v>2496</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -974,18 +1029,18 @@
         <v>2496</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -994,18 +1049,18 @@
         <v>2496</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1014,18 +1069,18 @@
         <v>2496</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1034,18 +1089,18 @@
         <v>2496</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1054,18 +1109,18 @@
         <v>2496</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1074,18 +1129,18 @@
         <v>2496</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1094,18 +1149,18 @@
         <v>2496</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1114,18 +1169,18 @@
         <v>2496</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1134,18 +1189,18 @@
         <v>2496</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1154,18 +1209,18 @@
         <v>2496</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1174,18 +1229,18 @@
         <v>2496</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1194,18 +1249,18 @@
         <v>2496</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1214,18 +1269,18 @@
         <v>2496</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1234,18 +1289,18 @@
         <v>2496</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1254,18 +1309,18 @@
         <v>2496</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1274,18 +1329,18 @@
         <v>2496</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1294,18 +1349,18 @@
         <v>2496</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1314,18 +1369,18 @@
         <v>2496</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1334,18 +1389,18 @@
         <v>2496</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1354,18 +1409,18 @@
         <v>2496</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1374,18 +1429,18 @@
         <v>2496</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1394,18 +1449,18 @@
         <v>2496</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1414,18 +1469,18 @@
         <v>2496</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1434,18 +1489,18 @@
         <v>2496</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1454,18 +1509,18 @@
         <v>2496</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1474,18 +1529,18 @@
         <v>2496</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1494,18 +1549,18 @@
         <v>2496</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1514,18 +1569,18 @@
         <v>2496</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1534,18 +1589,18 @@
         <v>2496</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1554,18 +1609,18 @@
         <v>2496</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1574,18 +1629,18 @@
         <v>2496</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1594,18 +1649,18 @@
         <v>2496</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1614,18 +1669,18 @@
         <v>2496</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1634,10 +1689,10 @@
         <v>2496</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_2496.xlsx
+++ b/fastqFiles/fastq_2496.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">

--- a/fastqFiles/fastq_2496.xlsx
+++ b/fastqFiles/fastq_2496.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="66">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">2496_Brent_16_GTAC20_ACAGATA_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4]</t>
   </si>
   <si>
     <t xml:space="preserve">2496_Brent_17_GTAC21_CTCAATG_S19_R1_001.fastq.gz</t>
@@ -315,12 +318,14 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
+      <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="54.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,8 +899,8 @@
       <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>4</v>
+      <c r="I28" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,13 +1320,13 @@
         <v>11</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I49" s="0" t="n">
-        <v>4</v>
+      <c r="I49" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
